--- a/tests/fixtures/multiple-gramcats.xlsx
+++ b/tests/fixtures/multiple-gramcats.xlsx
@@ -64,25 +64,7 @@
     <t xml:space="preserve"> diminutivo/a </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> adj. // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s. m. // s. f.</t>
-    </r>
+    <t xml:space="preserve"> adj. // s. m. // s. f.</t>
   </si>
   <si>
     <t xml:space="preserve"> achiquidor </t>
@@ -104,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,12 +108,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,93 +194,87 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
